--- a/Thunderstone Capital/hourLog.xlsx
+++ b/Thunderstone Capital/hourLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xandernelson/Desktop/Thunderstone Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DEAF152-CC6F-EC41-BA62-B1E766946031}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35C1FE7-DAE5-0646-961E-0B91333F7CA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="1000" windowWidth="15580" windowHeight="15840" xr2:uid="{355D0172-9ACC-1D4C-9A5A-20DE0CEC96CF}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="15580" windowHeight="15840" xr2:uid="{355D0172-9ACC-1D4C-9A5A-20DE0CEC96CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -69,10 +69,19 @@
     <t>8:55-12:12, 1:05-3</t>
   </si>
   <si>
-    <t>Website creation</t>
-  </si>
-  <si>
-    <t>10:05-00:00</t>
+    <t>Building the site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:05-1:30, </t>
+  </si>
+  <si>
+    <t>10:00-12:55 2:00-3:00</t>
+  </si>
+  <si>
+    <t>9:45-12:15 12:45-1:45</t>
+  </si>
+  <si>
+    <t>Building site, setting up emails, setting up web host, making business cards</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B058AD94-EEAE-6346-AB91-C4AB542C6FE2}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,6 +539,40 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
